--- a/Documentação/Planilha de testes.xlsx
+++ b/Documentação/Planilha de testes.xlsx
@@ -15,21 +15,39 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
+    <t>conformidade</t>
+  </si>
+  <si>
+    <t>requisitos feitos</t>
+  </si>
+  <si>
     <t>Sky Ashes</t>
   </si>
   <si>
-    <t>Planilha de teste</t>
+    <t>validação</t>
+  </si>
+  <si>
+    <t>forçar erros</t>
+  </si>
+  <si>
+    <t>usabilidade</t>
+  </si>
+  <si>
+    <t>intuitivo, amigável, bonito</t>
+  </si>
+  <si>
+    <t>Planilha de testes</t>
+  </si>
+  <si>
+    <t>Usabilidade</t>
+  </si>
+  <si>
+    <t>Conformidade</t>
   </si>
   <si>
     <t>Validação</t>
   </si>
   <si>
-    <t>Usabilidade</t>
-  </si>
-  <si>
-    <t>Conformidade</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -60,6 +78,15 @@
     <t>Menu</t>
   </si>
   <si>
+    <t>Apresentação visual</t>
+  </si>
+  <si>
+    <t>O menu deve apresentar background e cores amigáveis ao jogador</t>
+  </si>
+  <si>
+    <t>Falta de elementos visuais</t>
+  </si>
+  <si>
     <t>Iniciar o jogo</t>
   </si>
   <si>
@@ -69,21 +96,6 @@
     <t>O resultado foi de acordo com o esperado</t>
   </si>
   <si>
-    <t>Apresentação visual</t>
-  </si>
-  <si>
-    <t>O menu deve apresentar background e cores amigáveis ao jogador</t>
-  </si>
-  <si>
-    <t>Falta de elementos visuais</t>
-  </si>
-  <si>
-    <t>conformidade</t>
-  </si>
-  <si>
-    <t>requisitos feitos</t>
-  </si>
-  <si>
     <t>Carregar jogo salvo</t>
   </si>
   <si>
@@ -93,22 +105,10 @@
     <t>Funcionalidade não implementada</t>
   </si>
   <si>
-    <t>validação</t>
-  </si>
-  <si>
-    <t>forçar erros</t>
-  </si>
-  <si>
     <t>Acessar as opções do jogo</t>
   </si>
   <si>
     <t>O jogador pode acessar as opções de configuração do jogo</t>
-  </si>
-  <si>
-    <t>usabilidade</t>
-  </si>
-  <si>
-    <t>intuitivo, amigável, bonito</t>
   </si>
   <si>
     <t>Sair do jogo</t>
@@ -221,8 +221,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -234,6 +234,10 @@
       <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Nunito"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="24.0"/>
@@ -263,10 +267,6 @@
     <font>
       <sz val="12.0"/>
       <name val="Nunito"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -406,50 +406,50 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -757,6 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -771,11 +772,10 @@
     <col customWidth="1" min="4" max="4" width="21.29"/>
     <col customWidth="1" min="5" max="5" width="25.43"/>
     <col customWidth="1" min="6" max="6" width="66.86"/>
-    <col customWidth="1" min="7" max="7" width="39.57"/>
-    <col customWidth="1" min="8" max="8" width="29.43"/>
-    <col customWidth="1" min="9" max="9" width="20.57"/>
-    <col customWidth="1" min="10" max="11" width="15.86"/>
-    <col customWidth="1" min="17" max="17" width="22.0"/>
+    <col customWidth="1" min="7" max="7" width="39.0"/>
+    <col customWidth="1" min="8" max="8" width="20.14"/>
+    <col customWidth="1" min="9" max="10" width="15.86"/>
+    <col customWidth="1" min="16" max="16" width="22.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -791,11 +791,11 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -803,9 +803,9 @@
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -813,11 +813,11 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -825,11 +825,11 @@
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -845,531 +845,493 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>1.0</v>
       </c>
-      <c r="B9" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>16</v>
+      <c r="B9" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="P9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>2.0</v>
       </c>
-      <c r="B10" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="P10" s="20" t="s">
+      <c r="B10" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="16" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="P11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="16" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="B24" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="B25" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="B26" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="B27" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="B14" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="B15" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="F27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="B28" s="17">
+        <v>43657.0</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="B16" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="B17" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="B18" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13">
-        <v>11.0</v>
-      </c>
-      <c r="B19" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="B20" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13">
-        <v>13.0</v>
-      </c>
-      <c r="B21" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="B22" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13">
-        <v>15.0</v>
-      </c>
-      <c r="B23" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="B24" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13">
-        <v>17.0</v>
-      </c>
-      <c r="B25" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13">
-        <v>18.0</v>
-      </c>
-      <c r="B26" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13">
-        <v>19.0</v>
-      </c>
-      <c r="B27" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13">
-        <v>20.0</v>
-      </c>
-      <c r="B28" s="14">
-        <v>43657.0</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="19"/>
+      <c r="G28" s="18" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
-      <c r="H29" s="19"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30">
       <c r="A30" s="21"/>
@@ -1401,6 +1363,9 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1421,6 +1386,7 @@
     <col customWidth="1" min="6" max="6" width="21.0"/>
     <col customWidth="1" min="7" max="7" width="16.57"/>
     <col customWidth="1" min="8" max="8" width="19.0"/>
+    <col customWidth="1" min="16" max="16" width="22.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1432,37 +1398,55 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="O1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1470,11 +1454,11 @@
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1490,29 +1474,29 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1569,11 +1553,11 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1581,9 +1565,9 @@
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1591,11 +1575,11 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1603,11 +1587,11 @@
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1623,52 +1607,52 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>1.0</v>
       </c>
       <c r="B9" s="15">
         <v>43749.0</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="C9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>20</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
